--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value312.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value312.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8803133389948536</v>
+        <v>0.9840301871299744</v>
       </c>
       <c r="B1">
-        <v>1.020327022076657</v>
+        <v>1.815277218818665</v>
       </c>
       <c r="C1">
-        <v>1.295776049298117</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.752496895789594</v>
+        <v>1.942726492881775</v>
       </c>
       <c r="E1">
-        <v>4.864570558665255</v>
+        <v>1.22331714630127</v>
       </c>
     </row>
   </sheetData>
